--- a/reactions.xlsx
+++ b/reactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Course-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F31F0-3F64-4D00-AAD9-0B649B4B3A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E927DB-C71D-4F81-ABF6-2FBB1B0DF103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3AC35258-AC8A-4B8B-8B29-2A98BA79A95F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3AC35258-AC8A-4B8B-8B29-2A98BA79A95F}"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="1" r:id="rId1"/>
@@ -504,21 +504,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,24 +544,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>144780</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B69590-A263-49C4-ABAD-D28F9F0BF7CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -582,91 +582,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D5816F-7361-4659-8F76-EDE5F5B77696}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -697,7 +616,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484E6DD9-B67A-4846-8136-E84C3F22990A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -718,23 +637,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -765,7 +671,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5144C1F-49B7-4DEC-9967-A96CFE71592F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -786,23 +692,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -833,7 +726,282 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166AF30E-F39E-468C-BA7D-7D2824658156}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>388620</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>236220</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>464820</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Object 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E40462C-61A4-43DA-BA4C-9CA887218FEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -888,292 +1056,20 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+            <xdr:cNvPr id="1049" name="Object 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
+                  <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E5B29F-6804-4167-A8C3-5618C5EDB3A7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>388620</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6C8D6D-A3A0-4F68-9F2D-D1C2542FA094}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>236220</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE663C4A-BF8C-43DB-9296-D3348A9CED06}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8071C607-0DFC-4EF9-AEC5-5F0E80F8FB8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6982FC58-3EE4-4D4C-9CC0-B8E8E3F3CD1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FA493D-95E6-47AD-99AF-FA28536FD1B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1235,8 +1131,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1447800</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1246,7 +1142,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF29DF13-6A86-44D9-8C3A-474A70D52412}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1267,23 +1163,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1314,7 +1197,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD05E6AF-E739-4DAB-9C44-046FA707B874}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1335,23 +1218,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1382,7 +1252,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D2F9E0-C169-41B3-9FC6-425CEBD027BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1403,23 +1273,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1439,8 +1296,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1341120</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1447800</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1450,7 +1307,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6561FB65-8E0E-4BA3-9B6D-489ACCB9786C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,23 +1328,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1518,7 +1362,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DC980C-E2ED-459C-8385-F94C13C336D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,23 +1383,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1586,7 +1417,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53645686-60DA-4A2D-AACB-DA2ECBFE226B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1607,23 +1438,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1654,7 +1472,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FD8CEE-95DB-4ED4-9C21-B1A29B54DE8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1675,23 +1493,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1722,7 +1527,7 @@
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E1DFA8-C524-4613-BA9E-07DA65F55A80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1743,23 +1548,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2069,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F154EA1-A383-4931-A698-77AB7BB669D9}">
   <dimension ref="A2:A56"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,33 +1924,8 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1030" r:id="rId3">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1032" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1030" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1032" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2177,13 +1944,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1032" r:id="rId5"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1032" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1033" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1033" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2202,13 +1969,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1033" r:id="rId7"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1033" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1034" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1034" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2227,13 +1994,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1034" r:id="rId9"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1034" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1035" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1035" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2252,38 +2019,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1035" r:id="rId11"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1035" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1036" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1036" r:id="rId13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1037" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1037" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2302,13 +2044,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1037" r:id="rId15"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1037" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1039" r:id="rId17">
-          <objectPr defaultSize="0" r:id="rId18">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1039" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2327,13 +2069,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1039" r:id="rId17"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1039" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1040" r:id="rId19">
-          <objectPr defaultSize="0" r:id="rId20">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1040" r:id="rId15">
+          <objectPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2352,13 +2094,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1040" r:id="rId19"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1040" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1041" r:id="rId21">
-          <objectPr defaultSize="0" r:id="rId22">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1041" r:id="rId17">
+          <objectPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2377,7 +2119,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="ChemDraw.Document.6.0" shapeId="1041" r:id="rId21"/>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1041" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1048" r:id="rId19">
+          <objectPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>464820</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1048" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1049" r:id="rId21">
+          <objectPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="ChemDraw.Document.6.0" shapeId="1049" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2675,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B3ED2C-C3FC-4B58-B932-BE5CC1DB2214}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2688,13 +2480,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:7" s="2" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="8" t="s">
@@ -2703,11 +2495,11 @@
       <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2749,7 +2541,7 @@
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="25">
         <v>-131</v>
       </c>
       <c r="G5" s="18">

--- a/reactions.xlsx
+++ b/reactions.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Course-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E927DB-C71D-4F81-ABF6-2FBB1B0DF103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDF39E-0631-4C55-8A76-C8E034A6BE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3AC35258-AC8A-4B8B-8B29-2A98BA79A95F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{3AC35258-AC8A-4B8B-8B29-2A98BA79A95F}"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="1" r:id="rId1"/>
     <sheet name="Kp" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kq" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,77 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Фенолэфир</t>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1</t>
-    </r>
   </si>
   <si>
     <t>35Q</t>
@@ -219,12 +153,250 @@
   <si>
     <t>Значения Е (кДж.моль) при направлении атаки</t>
   </si>
+  <si>
+    <t>Исходный хинон</t>
+  </si>
+  <si>
+    <t>Хлоранил</t>
+  </si>
+  <si>
+    <t>1,4-Нафтохинон</t>
+  </si>
+  <si>
+    <t>Витамин Кз</t>
+  </si>
+  <si>
+    <t>Антрахинон</t>
+  </si>
+  <si>
+    <t>Рибофлавин</t>
+  </si>
+  <si>
+    <t>Флавинмононуклеотид</t>
+  </si>
+  <si>
+    <t>Люмифлавин</t>
+  </si>
+  <si>
+    <t>вода</t>
+  </si>
+  <si>
+    <t>изопропанол</t>
+  </si>
+  <si>
+    <t>диоксан</t>
+  </si>
+  <si>
+    <t>этанол</t>
+  </si>
+  <si>
+    <t>вода — пропанол</t>
+  </si>
+  <si>
+    <t>этанол/вода</t>
+  </si>
+  <si>
+    <t>метанол</t>
+  </si>
+  <si>
+    <t>вода»</t>
+  </si>
+  <si>
+    <t>ДМФА</t>
+  </si>
+  <si>
+    <t>р-Бензохинон</t>
+  </si>
+  <si>
+    <t>растворитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QН• </t>
+  </si>
+  <si>
+    <t>Дурохинон</t>
+  </si>
+  <si>
+    <t>Антрохинон-1-сульфонат</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>Констант скорости реакции гибели, М</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> * 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Константа</t>
+  </si>
+  <si>
+    <t>значение</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>1E+9*light</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>K2*k4</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>K4*k8</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>k11</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +451,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,34 +470,109 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -462,42 +718,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -507,6 +774,125 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,9 +905,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Kq" xfId="1" xr:uid="{5DBA9EF4-1A34-4B4A-B48D-05B231039924}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1001,7 +1409,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E40462C-61A4-43DA-BA4C-9CA887218FEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1022,23 +1430,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1069,7 +1464,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FA493D-95E6-47AD-99AF-FA28536FD1B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1090,23 +1485,10 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1562,6 +1944,327 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207113</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>217958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="6643"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7853073" y="1546412"/>
+          <a:ext cx="4079875" cy="4292416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113908</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>61149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F9C656-F336-45C1-BEC3-C5260A0A16A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="121920"/>
+          <a:ext cx="18371428" cy="9967149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113908</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>42564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E8D2F5-DE5E-467B-AC90-9E9275E65E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="10332720"/>
+          <a:ext cx="18371428" cy="10161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83428</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>103524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256B3A16-4449-411F-B4DF-2A1AAF168513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="20296909"/>
+          <a:ext cx="18371428" cy="10009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>113908</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36BC351-DC09-44EA-9526-40807B20DDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20909280" y="121920"/>
+          <a:ext cx="18371428" cy="9563754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>113908</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>42564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFF1DE3-C8A0-42FE-9DCB-F17D3E6FC992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20909280" y="10332720"/>
+          <a:ext cx="18371428" cy="9613284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>83428</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>103524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33FEBE9-ECB8-4948-AF2B-CC5DBBBCE256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20878800" y="21355050"/>
+          <a:ext cx="18371428" cy="10009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1861,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F154EA1-A383-4931-A698-77AB7BB669D9}">
   <dimension ref="A2:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233B0C7-B6E9-46BB-A635-49E4EB9E3D72}">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
@@ -2194,62 +2897,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:6" ht="24.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1</v>
+      <c r="F2" s="46" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="11">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>3.3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5">
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="50">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="11">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5">
+      <c r="D4" s="49"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="50">
         <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="11">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5">
+      <c r="D5" s="49"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="50">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52">
         <v>1.7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7">
+      <c r="D6" s="53"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="54">
         <v>0.05</v>
       </c>
     </row>
@@ -2480,71 +3183,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="63"/>
+    </row>
+    <row r="2" spans="2:7" s="2" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-124</v>
+      </c>
+      <c r="G3" s="6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>-104</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="2:7" s="2" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>6.34</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>-124</v>
-      </c>
-      <c r="G3" s="17">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="22">
-        <v>-104</v>
-      </c>
-      <c r="G4" s="17">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="25">
+      <c r="F5" s="14">
         <v>-131</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="7">
         <v>-71</v>
       </c>
     </row>
@@ -2555,4 +3258,469 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C123691-DF24-41F9-9FDB-17AA45580757}">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" s="20" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="3" spans="2:5" s="20" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="68"/>
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1100000000</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="65"/>
+      <c r="C5" s="21">
+        <v>1200000000</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="65"/>
+      <c r="C6" s="22">
+        <v>1500000000</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="65"/>
+      <c r="C7" s="21">
+        <v>5400000000</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="65"/>
+      <c r="C8" s="21">
+        <v>2.78</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="32">
+        <v>1800000000</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="34">
+        <v>720000000</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="21">
+        <v>800000000</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="21">
+        <v>730000000</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="66"/>
+      <c r="C13" s="26">
+        <v>2900000000</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="65"/>
+      <c r="C15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="65"/>
+      <c r="C16" s="22">
+        <v>170000000</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="66"/>
+      <c r="C17" s="26">
+        <v>820000000</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1300000000</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="65"/>
+      <c r="C19" s="21">
+        <v>230000000</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="65"/>
+      <c r="C20" s="21">
+        <v>900000000</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="66"/>
+      <c r="C21" s="26">
+        <v>260000000</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="34">
+        <v>3400000000</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="66"/>
+      <c r="C23" s="26">
+        <v>1300000000</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="66"/>
+      <c r="C25" s="26">
+        <v>1200000000</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="38">
+        <v>1600000000</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1140000000</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="65"/>
+      <c r="C28" s="21">
+        <v>3500000000</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="66"/>
+      <c r="C29" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="41">
+        <v>350000000</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="26">
+        <v>750000000</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00491ECF-45FF-46C3-9233-2A52112A5AC4}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CF36" sqref="CF36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="59">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="59">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="59">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="59">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="59">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>